--- a/pontinho2/outputs/gramatica/statement.xlsx
+++ b/pontinho2/outputs/gramatica/statement.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>expression</t>
   </si>
@@ -132,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -211,109 +208,109 @@
       <c r="Y1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0">
-        <v>7</v>
-      </c>
-      <c r="S2" s="0">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="0">
+        <v>6</v>
+      </c>
+      <c r="R2" s="0">
+        <v>37</v>
+      </c>
+      <c r="V2" s="0">
+        <v>46</v>
       </c>
       <c r="W2" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="X2" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="0">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="C3" s="0">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>2</v>
       </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="D5" s="0">
-        <v>5</v>
+      <c r="Y5" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="Z6" s="0">
-        <v>3</v>
+      <c r="Y6" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>5</v>
       </c>
-      <c r="Z7" s="0">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>6</v>
       </c>
+      <c r="Y8" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>7</v>
       </c>
-      <c r="R9" s="0">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="0">
-        <v>34</v>
+      <c r="E9" s="0">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0">
+        <v>13</v>
+      </c>
+      <c r="J9" s="0">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>8</v>
       </c>
-      <c r="F10" s="0">
-        <v>10</v>
-      </c>
-      <c r="G10" s="0">
-        <v>11</v>
-      </c>
-      <c r="H10" s="0">
-        <v>12</v>
-      </c>
-      <c r="I10" s="0">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0">
-        <v>14</v>
-      </c>
       <c r="K10" s="0">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="0">
         <v>15</v>
       </c>
     </row>
@@ -321,109 +318,103 @@
       <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="L11" s="0">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>16</v>
+      <c r="Y11" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="Z12" s="0">
-        <v>9</v>
+      <c r="Y12" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>11</v>
       </c>
-      <c r="Z13" s="0">
-        <v>9</v>
+      <c r="Y13" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>12</v>
       </c>
-      <c r="Z14" s="0">
-        <v>9</v>
+      <c r="Y14" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="Z15" s="0">
-        <v>9</v>
+      <c r="Y15" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="Z16" s="0">
-        <v>9</v>
+      <c r="Y16" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="Z17" s="0">
-        <v>9</v>
+      <c r="M17" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="N18" s="0">
-        <v>21</v>
+      <c r="L18" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>17</v>
       </c>
-      <c r="M19" s="0">
-        <v>18</v>
+      <c r="Y19" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>18</v>
       </c>
-      <c r="Z20" s="0">
-        <v>16</v>
+      <c r="Y20" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>19</v>
       </c>
-      <c r="D21" s="0">
-        <v>33</v>
-      </c>
-      <c r="Z21" s="0">
-        <v>25</v>
+      <c r="Y21" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>20</v>
       </c>
-      <c r="Z22" s="0">
-        <v>19</v>
+      <c r="K22" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>21</v>
       </c>
-      <c r="L23" s="0">
+      <c r="N23" s="0">
         <v>22</v>
       </c>
     </row>
@@ -431,7 +422,7 @@
       <c r="A24" s="0">
         <v>22</v>
       </c>
-      <c r="O24" s="0">
+      <c r="L24" s="0">
         <v>23</v>
       </c>
     </row>
@@ -439,55 +430,58 @@
       <c r="A25" s="0">
         <v>23</v>
       </c>
-      <c r="M25" s="0">
-        <v>24</v>
+      <c r="Y25" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>24</v>
       </c>
-      <c r="Z26" s="0">
-        <v>19</v>
+      <c r="C26" s="0">
+        <v>32</v>
+      </c>
+      <c r="O26" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>25</v>
       </c>
-      <c r="P27" s="0">
-        <v>26</v>
+      <c r="M27" s="0">
+        <v>28</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>26</v>
       </c>
-      <c r="N28" s="0">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="0">
-        <v>24</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>27</v>
       </c>
+      <c r="Y29" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
         <v>28</v>
       </c>
-      <c r="Z30" s="0">
-        <v>27</v>
+      <c r="K30" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
         <v>29</v>
       </c>
-      <c r="L31" s="0">
+      <c r="N31" s="0">
         <v>30</v>
       </c>
     </row>
@@ -495,7 +489,7 @@
       <c r="A32" s="0">
         <v>30</v>
       </c>
-      <c r="O32" s="0">
+      <c r="L32" s="0">
         <v>31</v>
       </c>
     </row>
@@ -503,60 +497,63 @@
       <c r="A33" s="0">
         <v>31</v>
       </c>
-      <c r="M33" s="0">
-        <v>32</v>
+      <c r="Y33" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>32</v>
       </c>
-      <c r="Z34" s="0">
-        <v>27</v>
+      <c r="Y34" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>33</v>
       </c>
-      <c r="Z35" s="0">
-        <v>7</v>
+      <c r="P35" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>34</v>
       </c>
-      <c r="Q36" s="0">
-        <v>35</v>
+      <c r="Y36" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>35</v>
       </c>
-      <c r="Z37" s="0">
-        <v>33</v>
+      <c r="Y37" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>36</v>
       </c>
-      <c r="Z38" s="0">
-        <v>6</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>37</v>
       </c>
+      <c r="S39" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>38</v>
       </c>
-      <c r="T40" s="0">
+      <c r="B40" s="0">
         <v>39</v>
       </c>
     </row>
@@ -564,7 +561,7 @@
       <c r="A41" s="0">
         <v>39</v>
       </c>
-      <c r="C41" s="0">
+      <c r="T41" s="0">
         <v>40</v>
       </c>
     </row>
@@ -572,7 +569,7 @@
       <c r="A42" s="0">
         <v>40</v>
       </c>
-      <c r="U42" s="0">
+      <c r="P42" s="0">
         <v>41</v>
       </c>
     </row>
@@ -580,52 +577,52 @@
       <c r="A43" s="0">
         <v>41</v>
       </c>
-      <c r="Q43" s="0">
-        <v>42</v>
+      <c r="U43" s="0">
+        <v>43</v>
+      </c>
+      <c r="Y43" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
         <v>42</v>
       </c>
-      <c r="V44" s="0">
-        <v>44</v>
-      </c>
-      <c r="Z44" s="0">
-        <v>37</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
         <v>43</v>
       </c>
+      <c r="P45" s="0">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
         <v>44</v>
       </c>
-      <c r="Q46" s="0">
-        <v>45</v>
+      <c r="Y46" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
         <v>45</v>
       </c>
-      <c r="Z47" s="0">
-        <v>43</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
         <v>46</v>
       </c>
+      <c r="S48" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>47</v>
       </c>
-      <c r="T49" s="0">
+      <c r="B49" s="0">
         <v>48</v>
       </c>
     </row>
@@ -633,7 +630,7 @@
       <c r="A50" s="0">
         <v>48</v>
       </c>
-      <c r="C50" s="0">
+      <c r="T50" s="0">
         <v>49</v>
       </c>
     </row>
@@ -641,7 +638,7 @@
       <c r="A51" s="0">
         <v>49</v>
       </c>
-      <c r="U51" s="0">
+      <c r="P51" s="0">
         <v>50</v>
       </c>
     </row>
@@ -649,22 +646,25 @@
       <c r="A52" s="0">
         <v>50</v>
       </c>
-      <c r="Q52" s="0">
-        <v>51</v>
+      <c r="Y52" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
         <v>51</v>
       </c>
-      <c r="Z53" s="0">
-        <v>46</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>52</v>
       </c>
+      <c r="B54" s="0">
+        <v>54</v>
+      </c>
+      <c r="Y54" s="0">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -673,53 +673,42 @@
       <c r="C55" s="0">
         <v>55</v>
       </c>
-      <c r="Z55" s="0">
-        <v>54</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>54</v>
       </c>
-      <c r="D56" s="0">
-        <v>56</v>
+      <c r="Y56" s="0">
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>55</v>
       </c>
-      <c r="Z57" s="0">
-        <v>54</v>
+      <c r="Y57" s="0">
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
         <v>56</v>
       </c>
-      <c r="Z58" s="0">
-        <v>52</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
         <v>57</v>
       </c>
+      <c r="C59" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
         <v>58</v>
       </c>
-      <c r="D60" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>59</v>
-      </c>
-      <c r="Z61" s="0">
-        <v>57</v>
+      <c r="Y60" s="0">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
